--- a/individual_results/avey/344.xlsx
+++ b/individual_results/avey/344.xlsx
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0.3333333333333333</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0.1666666666666667</v>
@@ -612,7 +612,7 @@
         <v>0.5</v>
       </c>
       <c r="V2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="W2" t="n">
         <v>0.3333333333333333</v>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -649,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0.5</v>
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0.5</v>
@@ -685,7 +685,7 @@
         <v>0.5</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="W3" t="n">
         <v>0.5</v>
@@ -697,9 +697,7 @@
           <t>f1-score</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.3333333333333333</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
         <v>0.3333333333333333</v>
@@ -715,9 +713,7 @@
         <v>0.4</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>0.3333333333333333</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
         <v>0.4</v>
       </c>
@@ -725,15 +721,9 @@
         <v>0.4</v>
       </c>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.2857142857142858</v>
-      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="n">
         <v>0.25</v>
       </c>
@@ -750,7 +740,7 @@
         <v>0.5</v>
       </c>
       <c r="V4" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="W4" t="n">
         <v>0.4</v>
@@ -762,9 +752,7 @@
           <t>f2-score</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.4166666666666667</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
         <v>0.4166666666666667</v>
@@ -780,9 +768,7 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>0.4166666666666667</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
         <v>0.4545454545454545</v>
       </c>
@@ -790,15 +776,9 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.3846153846153846</v>
-      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
         <v>0.3571428571428572</v>
       </c>
@@ -815,7 +795,7 @@
         <v>0.5</v>
       </c>
       <c r="V5" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="W5" t="n">
         <v>0.4545454545454545</v>
@@ -828,7 +808,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.52129602861432</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -852,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1377057761880933</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0.8262346571285599</v>
@@ -864,13 +844,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.3558398982930783</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1377057761880933</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0.17376534287144</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0.3558398982930783</v>
@@ -888,7 +868,7 @@
         <v>0.8262346571285599</v>
       </c>
       <c r="V6" t="n">
-        <v>1</v>
+        <v>0.17376534287144</v>
       </c>
       <c r="W6" t="n">
         <v>0.17376534287144</v>
@@ -961,7 +941,7 @@
         <v>1</v>
       </c>
       <c r="V7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" t="b">
         <v>0</v>
@@ -974,7 +954,7 @@
         </is>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -1034,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="V8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" t="b">
         <v>0</v>
@@ -1047,7 +1027,7 @@
         </is>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -1083,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="b">
         <v>0</v>
@@ -1107,7 +1087,7 @@
         <v>1</v>
       </c>
       <c r="V9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" t="b">
         <v>0</v>
@@ -1119,9 +1099,7 @@
           <t>position</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>2</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
@@ -1137,9 +1115,7 @@
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
-        <v>4</v>
-      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="n">
@@ -1157,9 +1133,7 @@
       <c r="U10" t="n">
         <v>1</v>
       </c>
-      <c r="V10" t="n">
-        <v>1</v>
-      </c>
+      <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
     </row>
     <row r="11">
